--- a/biology/Histoire de la zoologie et de la botanique/Karel_Bořivoj_Presl/Karel_Bořivoj_Presl.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karel_Bořivoj_Presl/Karel_Bořivoj_Presl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karel_Bo%C5%99ivoj_Presl</t>
+          <t>Karel_Bořivoj_Presl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karel Bořivoj Presl est un botaniste né en 1794 à Prague et mort en 1852 dans cette même ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karel_Bo%C5%99ivoj_Presl</t>
+          <t>Karel_Bořivoj_Presl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Karel Bořivoj Presl passe toute sa vie à Prague où il enseigne à l’université. Il fait un voyage en Sicile en 1817 et publie avec son frère Flora bohemica en 1819.
 Il fait autorité surtout pour ses ouvrages sur les fougères.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karel_Bo%C5%99ivoj_Presl</t>
+          <t>Karel_Bořivoj_Presl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Principaux ouvrages et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jan Svatopluk Presl et Karel Bořiwog Presl - Flora bohemica : Indicatis medicinalibus, occonomicis technologicisque plantis. Kwětena česka. Spoznamenánjm lekařských, hospodařských a řemeselnických rostlin - Pragae : J. G. Clave , 1819 (ouvrage en tchèque et latin)
 Jan Svatopluk Presl et Karel Bořiwog Presl - Deliciae pragenses : historiam naturalem spectantes - Pragae : Sumtibus Calve , 1822 (ouvrage en latin)
